--- a/src/file/Sample Sisa 3.xlsx
+++ b/src/file/Sample Sisa 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Alpha Data Labs\company-scraper\src\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2489557A-0F21-43F0-8B18-2DB9164B6566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DABEF-4A0A-4CC5-BD71-B17481975EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -33,31 +33,49 @@
     <t>Nama Perusahaan</t>
   </si>
   <si>
+    <t>BARRY CALLEBAUT COMEXTRA INDONESIA</t>
+  </si>
+  <si>
+    <t>ASPAL POLIMER EMULSINDO</t>
+  </si>
+  <si>
+    <t>KIRANA BAHARI INDONESIA</t>
+  </si>
+  <si>
+    <t>PACINESIA CHEMICAL INDUSTRY</t>
+  </si>
+  <si>
+    <t>EVER CHEMICAL INDONESIA</t>
+  </si>
+  <si>
+    <t>BSM NEW MATERIAL</t>
+  </si>
+  <si>
+    <t>INDONESIA LIFA ALGAE KARAGINAN INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>MEGAH ENERGI KHATULISTIWA</t>
+  </si>
+  <si>
+    <t>SARANG LAKSANA MANDIRI</t>
+  </si>
+  <si>
+    <t>MOTASA INDONESIA</t>
+  </si>
+  <si>
+    <t>AROMA ATSIRI INDONESIA</t>
+  </si>
+  <si>
+    <t>FINEXCO PRIMA</t>
+  </si>
+  <si>
     <t>RAJA GUANGXI INTERNATIONAL ORGANIZATION</t>
   </si>
   <si>
-    <t>SAMUDERA INDONESIA FISHERY</t>
-  </si>
-  <si>
-    <t>MITRA KARYA</t>
-  </si>
-  <si>
-    <t>INTI GARAM CEMERLANG</t>
-  </si>
-  <si>
-    <t>HAJI MAMING PELABUHAN</t>
-  </si>
-  <si>
-    <t>WANXIANG XINSHENG INDONESIA</t>
-  </si>
-  <si>
-    <t>FARMA MEDIKA INDONESIA</t>
-  </si>
-  <si>
-    <t>BUMI AYUKENCANA</t>
-  </si>
-  <si>
-    <t>CIPTA SELERA SEMESTA</t>
+    <t>PANDANARAN KENCANA CITRA RASA</t>
+  </si>
+  <si>
+    <t>SUHADA PETROLEUM</t>
   </si>
 </sst>
 </file>
@@ -80,18 +98,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,11 +119,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,77 +421,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
